--- a/result/SupplementaryData.xlsx
+++ b/result/SupplementaryData.xlsx
@@ -11,17 +11,23 @@
     <sheet name="Table S5" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Table S6" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Table S7" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Table S8" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Table S9" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Table S10" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Table S11" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Table S12" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Table S13" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">Patient</t>
   </si>
   <si>
-    <t xml:space="preserve">baseline_apheresis</t>
+    <t xml:space="preserve">baseline</t>
   </si>
   <si>
     <t xml:space="preserve">infusion</t>
@@ -30,19 +36,19 @@
     <t xml:space="preserve">4W</t>
   </si>
   <si>
-    <t xml:space="preserve">FU1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FU2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FU3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FU4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FU5</t>
+    <t xml:space="preserve">FU_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FU_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FU_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FU_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FU_05</t>
   </si>
   <si>
     <t xml:space="preserve">TLML_1_</t>
@@ -54,22 +60,22 @@
     <t xml:space="preserve">TLML_7_</t>
   </si>
   <si>
-    <t xml:space="preserve">TLML_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TLML_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TLML_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TLML_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TLML_26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TLML_29</t>
+    <t xml:space="preserve">TLML_16_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLML_18_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLML_20_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLML_22_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLML_26_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLML_29_</t>
   </si>
   <si>
     <t xml:space="preserve">4W_expanded</t>
@@ -85,6 +91,24 @@
   </si>
   <si>
     <t xml:space="preserve">Amount of &gt;5% clones 4W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIL % in baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIL % in 4 week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cfDNA % in gDNA baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cfDNA % in gDNA 4 week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baseline cfDNA clone count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 week cfDNA clone count</t>
   </si>
   <si>
     <t xml:space="preserve">Top 50% of TIL to 4W</t>
@@ -494,7 +518,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>2.37216828478964</v>
+        <v>1.50993377483444</v>
       </c>
       <c r="C3" t="n">
         <v>4.20843091334895</v>
@@ -667,6 +691,506 @@
       </c>
       <c r="E10"/>
       <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.833177264060217</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.428866318613641</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2" t="n">
+        <v>0.854057257914317</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.844503527577663</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.823811163028628</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.833177264060217</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.428866318613641</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.854057257914317</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.844503527577663</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.823811163028628</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.833177264060217</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.428866318613641</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.854057257914317</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.844503527577663</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.823811163028628</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.833177264060217</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.428866318613641</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.854057257914317</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.844503527577663</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.823811163028628</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.833177264060217</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.428866318613641</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.854057257914317</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.844503527577663</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.823811163028628</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.833177264060217</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.428866318613641</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.854057257914317</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.844503527577663</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.823811163028628</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.833177264060217</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.428866318613641</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.854057257914317</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.844503527577663</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.823811163028628</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.833177264060217</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.428866318613641</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.854057257914317</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.844503527577663</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.823811163028628</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.833177264060217</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.428866318613641</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.854057257914317</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.844503527577663</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.823811163028628</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.166822735939783</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.571133681386359</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2" t="n">
+        <v>0.145942742085683</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.155496472422337</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.176188836971372</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.166822735939783</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.571133681386359</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.145942742085683</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.155496472422337</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.176188836971372</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.166822735939783</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.571133681386359</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.145942742085683</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.155496472422337</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.176188836971372</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.166822735939783</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.571133681386359</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.145942742085683</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.155496472422337</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.176188836971372</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.166822735939783</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.571133681386359</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.145942742085683</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.155496472422337</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.176188836971372</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.166822735939783</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.571133681386359</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.145942742085683</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.155496472422337</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.176188836971372</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.166822735939783</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.571133681386359</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.145942742085683</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.155496472422337</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.176188836971372</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.166822735939783</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.571133681386359</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.145942742085683</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.155496472422337</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.176188836971372</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.166822735939783</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.571133681386359</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.145942742085683</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.155496472422337</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.176188836971372</v>
+      </c>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -742,7 +1266,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00201106083459025</v>
+        <v>0.00960998439937598</v>
       </c>
       <c r="C3" t="n">
         <v>0.00884068409382988</v>
@@ -966,7 +1490,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0.136128084151907</v>
+        <v>0.152390438247012</v>
       </c>
       <c r="C3" t="n">
         <v>0.156548938199568</v>
@@ -1126,10 +1650,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0563848712197386</v>
+        <v>0.128112549800797</v>
       </c>
       <c r="C3" t="n">
-        <v>0.281421610333359</v>
+        <v>0.584038844621514</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1293,8 +1817,183 @@
       <c r="G1" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.17910447761194</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0720509383378016</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.085968625498008</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.717129071170084</v>
+      </c>
+      <c r="F2" t="n">
+        <v>67</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.169230769230769</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.245283018867925</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0423735709345376</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.425406571523399</v>
+      </c>
+      <c r="F3" t="n">
+        <v>65</v>
+      </c>
+      <c r="G3" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0166666666666667</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.179267084846484</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.011502922873845</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.769696563435671</v>
+      </c>
+      <c r="F4" t="n">
+        <v>120</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.419889502762431</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.679458239277652</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0531575898030127</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.672795443074483</v>
+      </c>
+      <c r="F5" t="n">
+        <v>181</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0955631399317406</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.079646017699115</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0472362608937881</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0771593352216497</v>
+      </c>
+      <c r="F6" t="n">
+        <v>293</v>
+      </c>
+      <c r="G6" t="n">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.06875</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.344827586206897</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0170896377117367</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.217256479560836</v>
+      </c>
+      <c r="F7" t="n">
+        <v>160</v>
+      </c>
+      <c r="G7" t="n">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -1334,13 +2033,13 @@
         <v>0.00170601546693361</v>
       </c>
       <c r="D3" t="n">
-        <v>0.118817852834741</v>
+        <v>0.00436221841950234</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0119498801144713</v>
+        <v>0.00659860557768924</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00104029700672906</v>
+        <v>0.000217878486055777</v>
       </c>
       <c r="G3" t="n">
         <v>0.000170601546693361</v>
@@ -1530,6 +2229,754 @@
       <c r="H10" t="n">
         <v>0.0270517736291826</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="n">
+        <v>32.3469717416468</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.41004475264348</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2" t="n">
+        <v>54.3547204434882</v>
+      </c>
+      <c r="F2" t="n">
+        <v>74.1694071307759</v>
+      </c>
+      <c r="G2" t="n">
+        <v>37.6921199897227</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
+        <v>67.4305059872995</v>
+      </c>
+      <c r="C3" t="n">
+        <v>185.54666121742</v>
+      </c>
+      <c r="D3" t="n">
+        <v>42.1526069280112</v>
+      </c>
+      <c r="E3" t="n">
+        <v>16.9211599531106</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="n">
+        <v>805.235265455924</v>
+      </c>
+      <c r="C4" t="n">
+        <v>459.863975752933</v>
+      </c>
+      <c r="D4" t="n">
+        <v>222.848517814855</v>
+      </c>
+      <c r="E4" t="n">
+        <v>287.459843488814</v>
+      </c>
+      <c r="F4" t="n">
+        <v>26.5248364325069</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="n">
+        <v>420.104469241307</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20.3469987921657</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.0984679365187</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8.63487647677154</v>
+      </c>
+      <c r="F5" t="n">
+        <v>18.0628232469681</v>
+      </c>
+      <c r="G5" t="n">
+        <v>26.593003687923</v>
+      </c>
+      <c r="H5" t="n">
+        <v>80.9014652589624</v>
+      </c>
+      <c r="I5" t="n">
+        <v>89.7002921937335</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="n">
+        <v>249.719688580108</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15.8743191212946</v>
+      </c>
+      <c r="D6" t="n">
+        <v>54.673294294663</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="n">
+        <v>398.548008118901</v>
+      </c>
+      <c r="C7" t="n">
+        <v>61.1231056750009</v>
+      </c>
+      <c r="D7" t="n">
+        <v>38.7992980851602</v>
+      </c>
+      <c r="E7" t="n">
+        <v>105.50378194846</v>
+      </c>
+      <c r="F7" t="n">
+        <v>113.190582337237</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="n">
+        <v>144.106855966356</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9.51031507468731</v>
+      </c>
+      <c r="D8" t="n">
+        <v>24.4790452121271</v>
+      </c>
+      <c r="E8" t="n">
+        <v>16.0869570348382</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15.1118643990723</v>
+      </c>
+      <c r="G8" t="n">
+        <v>18.8683386071158</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="n">
+        <v>55.1913449980407</v>
+      </c>
+      <c r="C9" t="n">
+        <v>126.297689923858</v>
+      </c>
+      <c r="D9" t="n">
+        <v>56.1477579203564</v>
+      </c>
+      <c r="E9" t="n">
+        <v>22.4914306388709</v>
+      </c>
+      <c r="F9" t="n">
+        <v>20.5785857559774</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="n">
+        <v>295.766835349304</v>
+      </c>
+      <c r="C10" t="n">
+        <v>41.1117351595271</v>
+      </c>
+      <c r="D10" t="n">
+        <v>85.9482791584076</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7.24611560912847</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.77993389254342</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2" t="n">
+        <v>7.67685139584111</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8.21094525803148</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7.12090522075055</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7.24611560912847</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.77993389254342</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.67685139584111</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8.21094525803148</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7.12090522075055</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7.24611560912847</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.77993389254342</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.67685139584111</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8.21094525803148</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7.12090522075055</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7.24611560912847</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.77993389254342</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.67685139584111</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8.21094525803148</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7.12090522075055</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7.24611560912847</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.77993389254342</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.67685139584111</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8.21094525803148</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7.12090522075055</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7.24611560912847</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.77993389254342</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.67685139584111</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8.21094525803148</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7.12090522075055</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7.24611560912847</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.77993389254342</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.67685139584111</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8.21094525803148</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7.12090522075055</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7.24611560912847</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.77993389254342</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.67685139584111</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8.21094525803148</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7.12090522075055</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7.24611560912847</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.77993389254342</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7.67685139584111</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8.21094525803148</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7.12090522075055</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="n">
+        <v>415</v>
+      </c>
+      <c r="C2" t="n">
+        <v>450</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2" t="n">
+        <v>508</v>
+      </c>
+      <c r="F2" t="n">
+        <v>845</v>
+      </c>
+      <c r="G2" t="n">
+        <v>400</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
+        <v>415</v>
+      </c>
+      <c r="C3" t="n">
+        <v>450</v>
+      </c>
+      <c r="D3" t="n">
+        <v>508</v>
+      </c>
+      <c r="E3" t="n">
+        <v>845</v>
+      </c>
+      <c r="F3" t="n">
+        <v>400</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="n">
+        <v>415</v>
+      </c>
+      <c r="C4" t="n">
+        <v>450</v>
+      </c>
+      <c r="D4" t="n">
+        <v>508</v>
+      </c>
+      <c r="E4" t="n">
+        <v>845</v>
+      </c>
+      <c r="F4" t="n">
+        <v>400</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="n">
+        <v>415</v>
+      </c>
+      <c r="C5" t="n">
+        <v>450</v>
+      </c>
+      <c r="D5" t="n">
+        <v>508</v>
+      </c>
+      <c r="E5" t="n">
+        <v>845</v>
+      </c>
+      <c r="F5" t="n">
+        <v>400</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="n">
+        <v>415</v>
+      </c>
+      <c r="C6" t="n">
+        <v>450</v>
+      </c>
+      <c r="D6" t="n">
+        <v>508</v>
+      </c>
+      <c r="E6" t="n">
+        <v>845</v>
+      </c>
+      <c r="F6" t="n">
+        <v>400</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="n">
+        <v>415</v>
+      </c>
+      <c r="C7" t="n">
+        <v>450</v>
+      </c>
+      <c r="D7" t="n">
+        <v>508</v>
+      </c>
+      <c r="E7" t="n">
+        <v>845</v>
+      </c>
+      <c r="F7" t="n">
+        <v>400</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="n">
+        <v>415</v>
+      </c>
+      <c r="C8" t="n">
+        <v>450</v>
+      </c>
+      <c r="D8" t="n">
+        <v>508</v>
+      </c>
+      <c r="E8" t="n">
+        <v>845</v>
+      </c>
+      <c r="F8" t="n">
+        <v>400</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="n">
+        <v>415</v>
+      </c>
+      <c r="C9" t="n">
+        <v>450</v>
+      </c>
+      <c r="D9" t="n">
+        <v>508</v>
+      </c>
+      <c r="E9" t="n">
+        <v>845</v>
+      </c>
+      <c r="F9" t="n">
+        <v>400</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="n">
+        <v>415</v>
+      </c>
+      <c r="C10" t="n">
+        <v>450</v>
+      </c>
+      <c r="D10" t="n">
+        <v>508</v>
+      </c>
+      <c r="E10" t="n">
+        <v>845</v>
+      </c>
+      <c r="F10" t="n">
+        <v>400</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/result/SupplementaryData.xlsx
+++ b/result/SupplementaryData.xlsx
@@ -766,20 +766,18 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0.833177264060217</v>
+        <v>0.905234203312246</v>
       </c>
       <c r="C3" t="n">
-        <v>0.428866318613641</v>
+        <v>0.866847163663829</v>
       </c>
       <c r="D3" t="n">
-        <v>0.854057257914317</v>
+        <v>0.750459589603259</v>
       </c>
       <c r="E3" t="n">
-        <v>0.844503527577663</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.823811163028628</v>
-      </c>
+        <v>0.662661170329574</v>
+      </c>
+      <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
@@ -789,19 +787,19 @@
         <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>0.833177264060217</v>
+        <v>0.951659980505252</v>
       </c>
       <c r="C4" t="n">
-        <v>0.428866318613641</v>
+        <v>0.936794851517695</v>
       </c>
       <c r="D4" t="n">
-        <v>0.854057257914317</v>
+        <v>0.91125060672723</v>
       </c>
       <c r="E4" t="n">
-        <v>0.844503527577663</v>
+        <v>0.932411602217528</v>
       </c>
       <c r="F4" t="n">
-        <v>0.823811163028628</v>
+        <v>0.922857214136197</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -812,43 +810,45 @@
         <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>0.833177264060217</v>
+        <v>0.94306543011768</v>
       </c>
       <c r="C5" t="n">
-        <v>0.428866318613641</v>
+        <v>0.635272626692056</v>
       </c>
       <c r="D5" t="n">
-        <v>0.854057257914317</v>
+        <v>0.749790433652203</v>
       </c>
       <c r="E5" t="n">
-        <v>0.844503527577663</v>
+        <v>0.683966334893336</v>
       </c>
       <c r="F5" t="n">
-        <v>0.823811163028628</v>
-      </c>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
+        <v>0.765651781188873</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.823059912967103</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.893230208222146</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.906863470556375</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>0.833177264060217</v>
+        <v>0.943328429576939</v>
       </c>
       <c r="C6" t="n">
-        <v>0.428866318613641</v>
+        <v>0.701408724106531</v>
       </c>
       <c r="D6" t="n">
-        <v>0.854057257914317</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.844503527577663</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.823811163028628</v>
-      </c>
+        <v>0.857508860539812</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -858,19 +858,19 @@
         <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>0.833177264060217</v>
+        <v>0.940965460911453</v>
       </c>
       <c r="C7" t="n">
-        <v>0.428866318613641</v>
+        <v>0.751831453701104</v>
       </c>
       <c r="D7" t="n">
-        <v>0.854057257914317</v>
+        <v>0.708631823582624</v>
       </c>
       <c r="E7" t="n">
-        <v>0.844503527577663</v>
+        <v>0.888921284032573</v>
       </c>
       <c r="F7" t="n">
-        <v>0.823811163028628</v>
+        <v>0.877357390643152</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -881,21 +881,23 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>0.833177264060217</v>
+        <v>0.927435980448354</v>
       </c>
       <c r="C8" t="n">
-        <v>0.428866318613641</v>
+        <v>0.572249071990204</v>
       </c>
       <c r="D8" t="n">
-        <v>0.854057257914317</v>
+        <v>0.760596233792754</v>
       </c>
       <c r="E8" t="n">
-        <v>0.844503527577663</v>
+        <v>0.727074384268755</v>
       </c>
       <c r="F8" t="n">
-        <v>0.823811163028628</v>
-      </c>
-      <c r="G8"/>
+        <v>0.722477301725572</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.744601005584237</v>
+      </c>
       <c r="H8"/>
       <c r="I8"/>
     </row>
@@ -904,19 +906,19 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>0.833177264060217</v>
+        <v>0.849384375823725</v>
       </c>
       <c r="C9" t="n">
-        <v>0.428866318613641</v>
+        <v>0.838504173960636</v>
       </c>
       <c r="D9" t="n">
-        <v>0.854057257914317</v>
+        <v>0.836941759336065</v>
       </c>
       <c r="E9" t="n">
-        <v>0.844503527577663</v>
+        <v>0.747595812717085</v>
       </c>
       <c r="F9" t="n">
-        <v>0.823811163028628</v>
+        <v>0.773472154624194</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -927,20 +929,16 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>0.833177264060217</v>
+        <v>0.941278411154824</v>
       </c>
       <c r="C10" t="n">
-        <v>0.428866318613641</v>
+        <v>0.737478761608821</v>
       </c>
       <c r="D10" t="n">
-        <v>0.854057257914317</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.844503527577663</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.823811163028628</v>
-      </c>
+        <v>0.868531479095405</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -1016,20 +1014,18 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0.166822735939783</v>
+        <v>0.0947657966877544</v>
       </c>
       <c r="C3" t="n">
-        <v>0.571133681386359</v>
+        <v>0.133152836336171</v>
       </c>
       <c r="D3" t="n">
-        <v>0.145942742085683</v>
+        <v>0.249540410396741</v>
       </c>
       <c r="E3" t="n">
-        <v>0.155496472422337</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.176188836971372</v>
-      </c>
+        <v>0.337338829670426</v>
+      </c>
+      <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
@@ -1039,19 +1035,19 @@
         <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>0.166822735939783</v>
+        <v>0.0483400194947478</v>
       </c>
       <c r="C4" t="n">
-        <v>0.571133681386359</v>
+        <v>0.0632051484823054</v>
       </c>
       <c r="D4" t="n">
-        <v>0.145942742085683</v>
+        <v>0.0887493932727703</v>
       </c>
       <c r="E4" t="n">
-        <v>0.155496472422337</v>
+        <v>0.0675883977824719</v>
       </c>
       <c r="F4" t="n">
-        <v>0.176188836971372</v>
+        <v>0.0771427858638031</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -1062,43 +1058,45 @@
         <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>0.166822735939783</v>
+        <v>0.0569345698823199</v>
       </c>
       <c r="C5" t="n">
-        <v>0.571133681386359</v>
+        <v>0.364727373307944</v>
       </c>
       <c r="D5" t="n">
-        <v>0.145942742085683</v>
+        <v>0.250209566347797</v>
       </c>
       <c r="E5" t="n">
-        <v>0.155496472422337</v>
+        <v>0.316033665106664</v>
       </c>
       <c r="F5" t="n">
-        <v>0.176188836971372</v>
-      </c>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
+        <v>0.234348218811127</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.176940087032897</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.106769791777854</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0931365294436253</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>0.166822735939783</v>
+        <v>0.056671570423061</v>
       </c>
       <c r="C6" t="n">
-        <v>0.571133681386359</v>
+        <v>0.298591275893469</v>
       </c>
       <c r="D6" t="n">
-        <v>0.145942742085683</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.155496472422337</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.176188836971372</v>
-      </c>
+        <v>0.142491139460188</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -1108,19 +1106,19 @@
         <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>0.166822735939783</v>
+        <v>0.0590345390885465</v>
       </c>
       <c r="C7" t="n">
-        <v>0.571133681386359</v>
+        <v>0.248168546298896</v>
       </c>
       <c r="D7" t="n">
-        <v>0.145942742085683</v>
+        <v>0.291368176417376</v>
       </c>
       <c r="E7" t="n">
-        <v>0.155496472422337</v>
+        <v>0.111078715967427</v>
       </c>
       <c r="F7" t="n">
-        <v>0.176188836971372</v>
+        <v>0.122642609356848</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -1131,21 +1129,23 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>0.166822735939783</v>
+        <v>0.0725640195516459</v>
       </c>
       <c r="C8" t="n">
-        <v>0.571133681386359</v>
+        <v>0.427750928009796</v>
       </c>
       <c r="D8" t="n">
-        <v>0.145942742085683</v>
+        <v>0.239403766207246</v>
       </c>
       <c r="E8" t="n">
-        <v>0.155496472422337</v>
+        <v>0.272925615731245</v>
       </c>
       <c r="F8" t="n">
-        <v>0.176188836971372</v>
-      </c>
-      <c r="G8"/>
+        <v>0.277522698274428</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.255398994415763</v>
+      </c>
       <c r="H8"/>
       <c r="I8"/>
     </row>
@@ -1154,19 +1154,19 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>0.166822735939783</v>
+        <v>0.150615624176275</v>
       </c>
       <c r="C9" t="n">
-        <v>0.571133681386359</v>
+        <v>0.161495826039364</v>
       </c>
       <c r="D9" t="n">
-        <v>0.145942742085683</v>
+        <v>0.163058240663935</v>
       </c>
       <c r="E9" t="n">
-        <v>0.155496472422337</v>
+        <v>0.252404187282915</v>
       </c>
       <c r="F9" t="n">
-        <v>0.176188836971372</v>
+        <v>0.226527845375806</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -1177,20 +1177,16 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>0.166822735939783</v>
+        <v>0.0587215888451764</v>
       </c>
       <c r="C10" t="n">
-        <v>0.571133681386359</v>
+        <v>0.262521238391179</v>
       </c>
       <c r="D10" t="n">
-        <v>0.145942742085683</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.155496472422337</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.176188836971372</v>
-      </c>
+        <v>0.131468520904595</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -2549,20 +2545,18 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>7.24611560912847</v>
+        <v>7.06164140602294</v>
       </c>
       <c r="C3" t="n">
-        <v>3.77993389254342</v>
+        <v>9.33006011208473</v>
       </c>
       <c r="D3" t="n">
-        <v>7.67685139584111</v>
+        <v>6.8741132842174</v>
       </c>
       <c r="E3" t="n">
-        <v>8.21094525803148</v>
-      </c>
-      <c r="F3" t="n">
-        <v>7.12090522075055</v>
-      </c>
+        <v>5.81689086390112</v>
+      </c>
+      <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
@@ -2572,19 +2566,19 @@
         <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>7.24611560912847</v>
+        <v>10.3016800239816</v>
       </c>
       <c r="C4" t="n">
-        <v>3.77993389254342</v>
+        <v>9.59463708396478</v>
       </c>
       <c r="D4" t="n">
-        <v>7.67685139584111</v>
+        <v>9.4140542732305</v>
       </c>
       <c r="E4" t="n">
-        <v>8.21094525803148</v>
+        <v>9.109510157184</v>
       </c>
       <c r="F4" t="n">
-        <v>7.12090522075055</v>
+        <v>5.06819624892405</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -2595,43 +2589,45 @@
         <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>7.24611560912847</v>
+        <v>9.66670208631754</v>
       </c>
       <c r="C5" t="n">
-        <v>3.77993389254342</v>
+        <v>5.94599268836586</v>
       </c>
       <c r="D5" t="n">
-        <v>7.67685139584111</v>
+        <v>5.56183485390437</v>
       </c>
       <c r="E5" t="n">
-        <v>8.21094525803148</v>
+        <v>5.50582540881411</v>
       </c>
       <c r="F5" t="n">
-        <v>7.12090522075055</v>
-      </c>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
+        <v>5.97277290325009</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6.49790802115941</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7.48857793083944</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.32940572919602</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>7.24611560912847</v>
+        <v>8.50581160181961</v>
       </c>
       <c r="C6" t="n">
-        <v>3.77993389254342</v>
+        <v>5.86821138975832</v>
       </c>
       <c r="D6" t="n">
-        <v>7.67685139584111</v>
-      </c>
-      <c r="E6" t="n">
-        <v>8.21094525803148</v>
-      </c>
-      <c r="F6" t="n">
-        <v>7.12090522075055</v>
-      </c>
+        <v>6.6837806681273</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -2641,19 +2637,19 @@
         <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>7.24611560912847</v>
+        <v>9.41097967140025</v>
       </c>
       <c r="C7" t="n">
-        <v>3.77993389254342</v>
+        <v>7.61551357557949</v>
       </c>
       <c r="D7" t="n">
-        <v>7.67685139584111</v>
+        <v>6.7032542779701</v>
       </c>
       <c r="E7" t="n">
-        <v>8.21094525803148</v>
+        <v>8.46220728140047</v>
       </c>
       <c r="F7" t="n">
-        <v>7.12090522075055</v>
+        <v>8.20798642650985</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -2664,21 +2660,23 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>7.24611560912847</v>
+        <v>7.75922824551596</v>
       </c>
       <c r="C8" t="n">
-        <v>3.77993389254342</v>
+        <v>5.53402406409441</v>
       </c>
       <c r="D8" t="n">
-        <v>7.67685139584111</v>
+        <v>6.76305719636758</v>
       </c>
       <c r="E8" t="n">
-        <v>8.21094525803148</v>
+        <v>6.33340422426626</v>
       </c>
       <c r="F8" t="n">
-        <v>7.12090522075055</v>
-      </c>
-      <c r="G8"/>
+        <v>6.49617044175934</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.84825679826594</v>
+      </c>
       <c r="H8"/>
       <c r="I8"/>
     </row>
@@ -2687,19 +2685,19 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>7.24611560912847</v>
+        <v>7.5602571979869</v>
       </c>
       <c r="C9" t="n">
-        <v>3.77993389254342</v>
+        <v>8.11185059653776</v>
       </c>
       <c r="D9" t="n">
-        <v>7.67685139584111</v>
+        <v>7.56504876139446</v>
       </c>
       <c r="E9" t="n">
-        <v>8.21094525803148</v>
+        <v>6.53508411603809</v>
       </c>
       <c r="F9" t="n">
-        <v>7.12090522075055</v>
+        <v>6.06826809378661</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -2710,20 +2708,16 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>7.24611560912847</v>
+        <v>8.81013019494739</v>
       </c>
       <c r="C10" t="n">
-        <v>3.77993389254342</v>
+        <v>7.68216694058888</v>
       </c>
       <c r="D10" t="n">
-        <v>7.67685139584111</v>
-      </c>
-      <c r="E10" t="n">
-        <v>8.21094525803148</v>
-      </c>
-      <c r="F10" t="n">
-        <v>7.12090522075055</v>
-      </c>
+        <v>8.05862543166015</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -2799,20 +2793,18 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>415</v>
+        <v>223</v>
       </c>
       <c r="C3" t="n">
-        <v>450</v>
+        <v>1738</v>
       </c>
       <c r="D3" t="n">
-        <v>508</v>
+        <v>572</v>
       </c>
       <c r="E3" t="n">
-        <v>845</v>
-      </c>
-      <c r="F3" t="n">
-        <v>400</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
@@ -2822,19 +2814,19 @@
         <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>415</v>
+        <v>1814</v>
       </c>
       <c r="C4" t="n">
-        <v>450</v>
+        <v>1211</v>
       </c>
       <c r="D4" t="n">
-        <v>508</v>
+        <v>1288</v>
       </c>
       <c r="E4" t="n">
-        <v>845</v>
+        <v>873</v>
       </c>
       <c r="F4" t="n">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -2845,43 +2837,45 @@
         <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>415</v>
+        <v>1218</v>
       </c>
       <c r="C5" t="n">
-        <v>450</v>
+        <v>657</v>
       </c>
       <c r="D5" t="n">
-        <v>508</v>
+        <v>171</v>
       </c>
       <c r="E5" t="n">
-        <v>845</v>
+        <v>265</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
-      </c>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
+        <v>223</v>
+      </c>
+      <c r="G5" t="n">
+        <v>238</v>
+      </c>
+      <c r="H5" t="n">
+        <v>334</v>
+      </c>
+      <c r="I5" t="n">
+        <v>271</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>415</v>
+        <v>518</v>
       </c>
       <c r="C6" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="D6" t="n">
-        <v>508</v>
-      </c>
-      <c r="E6" t="n">
-        <v>845</v>
-      </c>
-      <c r="F6" t="n">
-        <v>400</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -2891,19 +2885,19 @@
         <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>415</v>
+        <v>1025</v>
       </c>
       <c r="C7" t="n">
-        <v>450</v>
+        <v>1120</v>
       </c>
       <c r="D7" t="n">
-        <v>508</v>
+        <v>704</v>
       </c>
       <c r="E7" t="n">
-        <v>845</v>
+        <v>734</v>
       </c>
       <c r="F7" t="n">
-        <v>400</v>
+        <v>655</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -2914,21 +2908,23 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>415</v>
+        <v>330</v>
       </c>
       <c r="C8" t="n">
-        <v>450</v>
+        <v>815</v>
       </c>
       <c r="D8" t="n">
-        <v>508</v>
+        <v>475</v>
       </c>
       <c r="E8" t="n">
-        <v>845</v>
+        <v>419</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
-      </c>
-      <c r="G8"/>
+        <v>509</v>
+      </c>
+      <c r="G8" t="n">
+        <v>587</v>
+      </c>
       <c r="H8"/>
       <c r="I8"/>
     </row>
@@ -2937,19 +2933,19 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>415</v>
+        <v>478</v>
       </c>
       <c r="C9" t="n">
-        <v>450</v>
+        <v>817</v>
       </c>
       <c r="D9" t="n">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="E9" t="n">
-        <v>845</v>
+        <v>428</v>
       </c>
       <c r="F9" t="n">
-        <v>400</v>
+        <v>230</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -2960,20 +2956,16 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>415</v>
+        <v>657</v>
       </c>
       <c r="C10" t="n">
-        <v>450</v>
+        <v>1367</v>
       </c>
       <c r="D10" t="n">
-        <v>508</v>
-      </c>
-      <c r="E10" t="n">
-        <v>845</v>
-      </c>
-      <c r="F10" t="n">
-        <v>400</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>

--- a/result/SupplementaryData.xlsx
+++ b/result/SupplementaryData.xlsx
@@ -17,12 +17,15 @@
     <sheet name="Table S11" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Table S12" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Table S13" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Table S14" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Table S15" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Table S16" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">Patient</t>
   </si>
@@ -78,9 +81,6 @@
     <t xml:space="preserve">TLML_29_</t>
   </si>
   <si>
-    <t xml:space="preserve">4W_expanded</t>
-  </si>
-  <si>
     <t xml:space="preserve">Amount of &gt;5% clones baseline</t>
   </si>
   <si>
@@ -111,25 +111,31 @@
     <t xml:space="preserve">4 week cfDNA clone count</t>
   </si>
   <si>
-    <t xml:space="preserve">Top 50% of TIL to 4W</t>
+    <t xml:space="preserve">Expanded baseline</t>
   </si>
   <si>
-    <t xml:space="preserve">Top 50% of 4W to TIL</t>
+    <t xml:space="preserve">Background baseline</t>
   </si>
   <si>
-    <t xml:space="preserve">Top 50% of BL to 4W</t>
+    <t xml:space="preserve">Not in baseline</t>
   </si>
   <si>
-    <t xml:space="preserve">Top 50% of 4W to BL</t>
+    <t xml:space="preserve">Expanded infusion</t>
   </si>
   <si>
-    <t xml:space="preserve">Average basline clone fraction of top 10 4W clones</t>
+    <t xml:space="preserve">Background infusion</t>
   </si>
   <si>
-    <t xml:space="preserve">Average infusion clone fraction of top 10 4W clones</t>
+    <t xml:space="preserve">Not in infusion</t>
   </si>
   <si>
-    <t xml:space="preserve">Average 4W clone fraction of top 10 clones</t>
+    <t xml:space="preserve">Baseline/Infusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baseline/4 week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 week/Infusion</t>
   </si>
 </sst>
 </file>
@@ -500,7 +506,9 @@
       <c r="C2" t="n">
         <v>1.95762711864407</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" t="n">
+        <v>2.08764940239044</v>
+      </c>
       <c r="E2" t="n">
         <v>2.08764940239044</v>
       </c>
@@ -510,15 +518,19 @@
       <c r="G2" t="n">
         <v>1.85087719298246</v>
       </c>
-      <c r="H2"/>
-      <c r="I2"/>
+      <c r="H2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I2" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="n">
-        <v>1.50993377483444</v>
+      <c r="B3" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
         <v>4.20843091334895</v>
@@ -529,10 +541,18 @@
       <c r="E3" t="n">
         <v>1.83057851239669</v>
       </c>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
+      <c r="F3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I3" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -553,9 +573,15 @@
       <c r="F4" t="n">
         <v>1.10869565217391</v>
       </c>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
+      <c r="G4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I4" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -599,11 +625,21 @@
       <c r="D6" t="n">
         <v>1.64748201438849</v>
       </c>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
+      <c r="E6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I6" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -624,9 +660,15 @@
       <c r="F7" t="n">
         <v>2.33559322033898</v>
       </c>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
+      <c r="G7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I7" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -650,8 +692,12 @@
       <c r="G8" t="n">
         <v>2.20863309352518</v>
       </c>
-      <c r="H8"/>
-      <c r="I8"/>
+      <c r="H8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I8" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -672,9 +718,15 @@
       <c r="F9" t="n">
         <v>1.475</v>
       </c>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
+      <c r="G9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I9" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -689,11 +741,21 @@
       <c r="D10" t="n">
         <v>2.2457337883959</v>
       </c>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
+      <c r="E10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I10" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -743,20 +805,22 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>0.833177264060217</v>
+        <v>32.3469717416468</v>
       </c>
       <c r="C2" t="n">
-        <v>0.428866318613641</v>
-      </c>
-      <c r="D2"/>
+        <v>4.41004475264349</v>
+      </c>
+      <c r="D2" t="n">
+        <v>54.3547204434883</v>
+      </c>
       <c r="E2" t="n">
-        <v>0.854057257914317</v>
+        <v>54.3547204434883</v>
       </c>
       <c r="F2" t="n">
-        <v>0.844503527577663</v>
+        <v>74.1694071307758</v>
       </c>
       <c r="G2" t="n">
-        <v>0.823811163028628</v>
+        <v>37.6921199897227</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -766,16 +830,16 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0.905234203312246</v>
+        <v>67.4305059872995</v>
       </c>
       <c r="C3" t="n">
-        <v>0.866847163663829</v>
+        <v>185.546661217418</v>
       </c>
       <c r="D3" t="n">
-        <v>0.750459589603259</v>
+        <v>42.1526069280112</v>
       </c>
       <c r="E3" t="n">
-        <v>0.662661170329574</v>
+        <v>16.9211599531106</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
@@ -787,19 +851,19 @@
         <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>0.951659980505252</v>
+        <v>805.235265455923</v>
       </c>
       <c r="C4" t="n">
-        <v>0.936794851517695</v>
+        <v>459.863975752931</v>
       </c>
       <c r="D4" t="n">
-        <v>0.91125060672723</v>
+        <v>222.848517814854</v>
       </c>
       <c r="E4" t="n">
-        <v>0.932411602217528</v>
+        <v>287.459843488814</v>
       </c>
       <c r="F4" t="n">
-        <v>0.922857214136197</v>
+        <v>26.5248364325069</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -810,28 +874,28 @@
         <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>0.94306543011768</v>
+        <v>420.104469241304</v>
       </c>
       <c r="C5" t="n">
-        <v>0.635272626692056</v>
+        <v>20.3469987921656</v>
       </c>
       <c r="D5" t="n">
-        <v>0.749790433652203</v>
+        <v>15.0984679365188</v>
       </c>
       <c r="E5" t="n">
-        <v>0.683966334893336</v>
+        <v>8.63487647677153</v>
       </c>
       <c r="F5" t="n">
-        <v>0.765651781188873</v>
+        <v>18.0628232469681</v>
       </c>
       <c r="G5" t="n">
-        <v>0.823059912967103</v>
+        <v>26.5930036879229</v>
       </c>
       <c r="H5" t="n">
-        <v>0.893230208222146</v>
+        <v>80.9014652589625</v>
       </c>
       <c r="I5" t="n">
-        <v>0.906863470556375</v>
+        <v>89.7002921937333</v>
       </c>
     </row>
     <row r="6">
@@ -839,13 +903,13 @@
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>0.943328429576939</v>
+        <v>249.719688580108</v>
       </c>
       <c r="C6" t="n">
-        <v>0.701408724106531</v>
+        <v>15.8743191212946</v>
       </c>
       <c r="D6" t="n">
-        <v>0.857508860539812</v>
+        <v>54.673294294663</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -858,19 +922,19 @@
         <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>0.940965460911453</v>
+        <v>398.548008118901</v>
       </c>
       <c r="C7" t="n">
-        <v>0.751831453701104</v>
+        <v>61.1231056750012</v>
       </c>
       <c r="D7" t="n">
-        <v>0.708631823582624</v>
+        <v>38.7992980851603</v>
       </c>
       <c r="E7" t="n">
-        <v>0.888921284032573</v>
+        <v>105.50378194846</v>
       </c>
       <c r="F7" t="n">
-        <v>0.877357390643152</v>
+        <v>113.190582337237</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -881,22 +945,22 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>0.927435980448354</v>
+        <v>144.106855966357</v>
       </c>
       <c r="C8" t="n">
-        <v>0.572249071990204</v>
+        <v>9.51031507468729</v>
       </c>
       <c r="D8" t="n">
-        <v>0.760596233792754</v>
+        <v>24.4790452121271</v>
       </c>
       <c r="E8" t="n">
-        <v>0.727074384268755</v>
+        <v>16.0869570348382</v>
       </c>
       <c r="F8" t="n">
-        <v>0.722477301725572</v>
+        <v>15.1118643990723</v>
       </c>
       <c r="G8" t="n">
-        <v>0.744601005584237</v>
+        <v>18.8683386071158</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
@@ -906,19 +970,19 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>0.849384375823725</v>
+        <v>55.1913449980409</v>
       </c>
       <c r="C9" t="n">
-        <v>0.838504173960636</v>
+        <v>126.297689923858</v>
       </c>
       <c r="D9" t="n">
-        <v>0.836941759336065</v>
+        <v>56.1477579203565</v>
       </c>
       <c r="E9" t="n">
-        <v>0.747595812717085</v>
+        <v>22.4914306388709</v>
       </c>
       <c r="F9" t="n">
-        <v>0.773472154624194</v>
+        <v>20.5785857559774</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -929,13 +993,13 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>0.941278411154824</v>
+        <v>295.766835349303</v>
       </c>
       <c r="C10" t="n">
-        <v>0.737478761608821</v>
+        <v>41.111735159527</v>
       </c>
       <c r="D10" t="n">
-        <v>0.868531479095405</v>
+        <v>85.9482791584076</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -991,20 +1055,22 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>0.166822735939783</v>
+        <v>5.02262460447881</v>
       </c>
       <c r="C2" t="n">
-        <v>0.571133681386359</v>
-      </c>
-      <c r="D2"/>
+        <v>2.62005052031945</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.32118790060495</v>
+      </c>
       <c r="E2" t="n">
-        <v>0.145942742085683</v>
+        <v>5.32118790060495</v>
       </c>
       <c r="F2" t="n">
-        <v>0.155496472422337</v>
+        <v>5.69139355533657</v>
       </c>
       <c r="G2" t="n">
-        <v>0.176188836971372</v>
+        <v>4.93583537679784</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -1014,16 +1080,16 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0947657966877544</v>
+        <v>4.89475683071017</v>
       </c>
       <c r="C3" t="n">
-        <v>0.133152836336171</v>
+        <v>6.46710486114634</v>
       </c>
       <c r="D3" t="n">
-        <v>0.249540410396741</v>
+        <v>4.76477224180496</v>
       </c>
       <c r="E3" t="n">
-        <v>0.337338829670426</v>
+        <v>4.03196150193797</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
@@ -1035,19 +1101,19 @@
         <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0483400194947478</v>
+        <v>7.14058046365357</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0632051484823054</v>
+        <v>6.65049564324609</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0887493932727703</v>
+        <v>6.52532517712803</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0675883977824719</v>
+        <v>6.31423128173427</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0771427858638031</v>
+        <v>3.5130059404662</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -1058,28 +1124,28 @@
         <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0569345698823199</v>
+        <v>6.70044729644394</v>
       </c>
       <c r="C5" t="n">
-        <v>0.364727373307944</v>
+        <v>4.12144806757085</v>
       </c>
       <c r="D5" t="n">
-        <v>0.250209566347797</v>
+        <v>3.85517014772385</v>
       </c>
       <c r="E5" t="n">
-        <v>0.316033665106664</v>
+        <v>3.81634735877481</v>
       </c>
       <c r="F5" t="n">
-        <v>0.234348218811127</v>
+        <v>4.14001069801264</v>
       </c>
       <c r="G5" t="n">
-        <v>0.176940087032897</v>
+        <v>4.5040066244045</v>
       </c>
       <c r="H5" t="n">
-        <v>0.106769791777854</v>
+        <v>5.19068667916479</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0931365294436253</v>
+        <v>5.08035691637213</v>
       </c>
     </row>
     <row r="6">
@@ -1087,13 +1153,13 @@
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>0.056671570423061</v>
+        <v>5.89577933017533</v>
       </c>
       <c r="C6" t="n">
-        <v>0.298591275893469</v>
+        <v>4.06753417974074</v>
       </c>
       <c r="D6" t="n">
-        <v>0.142491139460188</v>
+        <v>4.63284372559351</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -1106,19 +1172,19 @@
         <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0590345390885465</v>
+        <v>6.52319402553804</v>
       </c>
       <c r="C7" t="n">
-        <v>0.248168546298896</v>
+        <v>5.27867176342891</v>
       </c>
       <c r="D7" t="n">
-        <v>0.291368176417376</v>
+        <v>4.64634180335137</v>
       </c>
       <c r="E7" t="n">
-        <v>0.111078715967427</v>
+        <v>5.86555511841658</v>
       </c>
       <c r="F7" t="n">
-        <v>0.122642609356848</v>
+        <v>5.6893426496096</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -1129,22 +1195,22 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0725640195516459</v>
+        <v>5.37828718170048</v>
       </c>
       <c r="C8" t="n">
-        <v>0.427750928009796</v>
+        <v>3.83589317717793</v>
       </c>
       <c r="D8" t="n">
-        <v>0.239403766207246</v>
+        <v>4.68779402762784</v>
       </c>
       <c r="E8" t="n">
-        <v>0.272925615731245</v>
+        <v>4.3899812813966</v>
       </c>
       <c r="F8" t="n">
-        <v>0.277522698274428</v>
+        <v>4.50280222614234</v>
       </c>
       <c r="G8" t="n">
-        <v>0.255398994415763</v>
+        <v>4.74684989146852</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
@@ -1154,19 +1220,19 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>0.150615624176275</v>
+        <v>5.24037096109265</v>
       </c>
       <c r="C9" t="n">
-        <v>0.161495826039364</v>
+        <v>5.62270637011366</v>
       </c>
       <c r="D9" t="n">
-        <v>0.163058240663935</v>
+        <v>5.24369221975907</v>
       </c>
       <c r="E9" t="n">
-        <v>0.252404187282915</v>
+        <v>4.52977512975388</v>
       </c>
       <c r="F9" t="n">
-        <v>0.226527845375806</v>
+        <v>4.20620292009006</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -1177,13 +1243,763 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0587215888451764</v>
+        <v>6.10671690499382</v>
       </c>
       <c r="C10" t="n">
-        <v>0.262521238391179</v>
+        <v>5.32487235546</v>
       </c>
       <c r="D10" t="n">
-        <v>0.131468520904595</v>
+        <v>5.5858134971439</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="n">
+        <v>415</v>
+      </c>
+      <c r="C2" t="n">
+        <v>450</v>
+      </c>
+      <c r="D2" t="n">
+        <v>508</v>
+      </c>
+      <c r="E2" t="n">
+        <v>508</v>
+      </c>
+      <c r="F2" t="n">
+        <v>845</v>
+      </c>
+      <c r="G2" t="n">
+        <v>400</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
+        <v>223</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1738</v>
+      </c>
+      <c r="D3" t="n">
+        <v>572</v>
+      </c>
+      <c r="E3" t="n">
+        <v>439</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1814</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1211</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1288</v>
+      </c>
+      <c r="E4" t="n">
+        <v>873</v>
+      </c>
+      <c r="F4" t="n">
+        <v>45</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1218</v>
+      </c>
+      <c r="C5" t="n">
+        <v>657</v>
+      </c>
+      <c r="D5" t="n">
+        <v>171</v>
+      </c>
+      <c r="E5" t="n">
+        <v>265</v>
+      </c>
+      <c r="F5" t="n">
+        <v>223</v>
+      </c>
+      <c r="G5" t="n">
+        <v>238</v>
+      </c>
+      <c r="H5" t="n">
+        <v>334</v>
+      </c>
+      <c r="I5" t="n">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="n">
+        <v>518</v>
+      </c>
+      <c r="C6" t="n">
+        <v>330</v>
+      </c>
+      <c r="D6" t="n">
+        <v>222</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1025</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1120</v>
+      </c>
+      <c r="D7" t="n">
+        <v>704</v>
+      </c>
+      <c r="E7" t="n">
+        <v>734</v>
+      </c>
+      <c r="F7" t="n">
+        <v>655</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="n">
+        <v>330</v>
+      </c>
+      <c r="C8" t="n">
+        <v>815</v>
+      </c>
+      <c r="D8" t="n">
+        <v>475</v>
+      </c>
+      <c r="E8" t="n">
+        <v>419</v>
+      </c>
+      <c r="F8" t="n">
+        <v>509</v>
+      </c>
+      <c r="G8" t="n">
+        <v>587</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="n">
+        <v>478</v>
+      </c>
+      <c r="C9" t="n">
+        <v>817</v>
+      </c>
+      <c r="D9" t="n">
+        <v>526</v>
+      </c>
+      <c r="E9" t="n">
+        <v>428</v>
+      </c>
+      <c r="F9" t="n">
+        <v>230</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="n">
+        <v>657</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1367</v>
+      </c>
+      <c r="D10" t="n">
+        <v>621</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.83317726406022</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.428866318613643</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.854057257914324</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.854057257914324</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.844503527577677</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.823811163028631</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.905234203312247</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.86684716366385</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.750459589603263</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.662661170329569</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.95165998050526</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.93679485151771</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.911250606727228</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.932411602217531</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.922857214136197</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.943065430117693</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.635272626692065</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.749790433652202</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.683966334893332</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.765651781188874</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.823059912967108</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.89323020822214</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.906863470556371</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.94332842957693</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.701408724106535</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.857508860539811</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.940965460911437</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.75183145370109</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.708631823582627</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.888921284032579</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.877357390643154</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.92743598044836</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.572249071990216</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.760596233792748</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.727074384268754</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.722477301725577</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.744601005584244</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.849384375823731</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.838504173960625</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.836941759336064</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.74759581271708</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.773472154624192</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.941278411154837</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.737478761608834</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8685314790954</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.155661976606204</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.424735034450789</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0966493806593761</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0966493806593761</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0759763313609467</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.129338433205837</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0729581673306773</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0454138497437452</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0835273655567088</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.133500903465471</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0109029954084979</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0178331830669951</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0434811675201562</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0261853526439227</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0214614101468733</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.139894758941088</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.214072353136409</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.32943910558382</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.196545373721979</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.166945373467113</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0607609642753413</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.057267539442766</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0221384832783797</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2128398086571</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0557586837294333</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0234772770130115</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.065114386410191</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0691334852750592</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0721817402486069</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0480910184881304</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0228852838933951</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.227077532914917</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.179191001514168</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.23169826124725</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.243890112738111</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.216416302212081</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.098810139679255</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0331276211999392</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.103641265399447</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.138852538053585</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.156762354024046</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0164566881668576</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.107488882767305</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0636956020701071</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -1244,7 +2060,9 @@
       <c r="C2" t="n">
         <v>0.0056770904648052</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" t="n">
+        <v>0.0432747293667048</v>
+      </c>
       <c r="E2" t="n">
         <v>0.0432747293667048</v>
       </c>
@@ -1262,7 +2080,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00960998439937598</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0.00884068409382988</v>
@@ -1463,9 +2281,6 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -1477,9 +2292,6 @@
       <c r="C2" t="n">
         <v>0.403444662385469</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.324072332536207</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1491,9 +2303,6 @@
       <c r="C3" t="n">
         <v>0.156548938199568</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.137192470614638</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1505,9 +2314,6 @@
       <c r="C4" t="n">
         <v>0.281584682648982</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.233169766415745</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1519,9 +2325,6 @@
       <c r="C5" t="n">
         <v>0.331729173581148</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.313308994357783</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1533,9 +2336,6 @@
       <c r="C6" t="n">
         <v>0.00521785496648385</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.00521785496648385</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -1547,9 +2347,6 @@
       <c r="C7" t="n">
         <v>0.170532242928006</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.134364153669691</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -1561,9 +2358,6 @@
       <c r="C8" t="n">
         <v>0.558338741077223</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.480798904030572</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1575,9 +2369,6 @@
       <c r="C9" t="n">
         <v>0.510459679896256</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.42483704740129</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1588,9 +2379,6 @@
       </c>
       <c r="C10" t="n">
         <v>0.457665472374128</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.403293733107046</v>
       </c>
     </row>
   </sheetData>
@@ -1612,16 +2400,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2">
@@ -1796,22 +2584,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2">
@@ -1971,25 +2759,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2">
@@ -1997,103 +2788,97 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0460542225327135</v>
+        <v>0.155661976606204</v>
       </c>
       <c r="C2" t="n">
-        <v>0.794980930908784</v>
+        <v>0.424735034450789</v>
       </c>
       <c r="D2" t="n">
-        <v>0.178198135260768</v>
+        <v>0.0966493806593761</v>
       </c>
       <c r="E2" t="n">
-        <v>0.377479233768435</v>
+        <v>0.0966493806593761</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0230632310561112</v>
+        <v>0.0759763313609467</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0765534461324512</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0298438885455571</v>
-      </c>
+        <v>0.129338433205837</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0253317249698432</v>
+        <v>0.0729581673306773</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00170601546693361</v>
+        <v>0.0454138497437452</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00436221841950234</v>
+        <v>0.0835273655567088</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00659860557768924</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.000217878486055777</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.000170601546693361</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.040696271776026</v>
-      </c>
+        <v>0.133500903465471</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>0.134855798157532</v>
+        <v>0.0109029954084979</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0982244908100894</v>
+        <v>0.0178331830669951</v>
       </c>
       <c r="D4" t="n">
-        <v>0.031822010669733</v>
+        <v>0.0434811675201562</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0168500838131332</v>
+        <v>0.0261853526439227</v>
       </c>
       <c r="F4" t="n">
-        <v>0.000274032504919467</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.00273035119727959</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0142904894973994</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>0.010620643876535</v>
+        <v>0.0214614101468733</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00367734201989693</v>
+        <v>0.139894758941088</v>
       </c>
       <c r="D5" t="n">
-        <v>0.277796216395619</v>
+        <v>0.214072353136409</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0216851784043289</v>
+        <v>0.32943910558382</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00216851784043289</v>
+        <v>0.196545373721979</v>
       </c>
       <c r="G5" t="n">
-        <v>0.000367734201989693</v>
+        <v>0.166945373467113</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0537670096249585</v>
+        <v>0.0607609642753413</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.057267539442766</v>
       </c>
     </row>
     <row r="6">
@@ -2101,130 +2886,109 @@
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.0221384832783797</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.2128398086571</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00807434491163924</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0038729261527189</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.000167477887685142</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.0354280926264473</v>
-      </c>
+        <v>0.0557586837294333</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0226646407769883</v>
+        <v>0.0234772770130115</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000551758385003207</v>
+        <v>0.065114386410191</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0398027736813097</v>
+        <v>0.0691334852750592</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00212144069394682</v>
+        <v>0.0721817402486069</v>
       </c>
       <c r="F7" t="n">
-        <v>0.000212144069394682</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.0000551758385003207</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.0442530276623319</v>
-      </c>
+        <v>0.0480910184881304</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0401759319345302</v>
+        <v>0.0228852838933951</v>
       </c>
       <c r="C8" t="n">
-        <v>0.255733566136567</v>
+        <v>0.227077532914917</v>
       </c>
       <c r="D8" t="n">
-        <v>0.120311486048021</v>
+        <v>0.179191001514168</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0460602549246813</v>
+        <v>0.23169826124725</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00163673232908459</v>
+        <v>0.243890112738111</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0254111415223444</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.0402739923570553</v>
-      </c>
+        <v>0.216416302212081</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>0.326553595195031</v>
+        <v>0.098810139679255</v>
       </c>
       <c r="C9" t="n">
-        <v>0.218290271409635</v>
+        <v>0.0331276211999392</v>
       </c>
       <c r="D9" t="n">
-        <v>0.263795515817493</v>
+        <v>0.103641265399447</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3121095149031</v>
+        <v>0.138852538053585</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0186597158661308</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.0118831352267542</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.0292802784697813</v>
-      </c>
+        <v>0.156762354024046</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0631298845517212</v>
+        <v>0.0164566881668576</v>
       </c>
       <c r="C10" t="n">
-        <v>0.213647632914879</v>
+        <v>0.107488882767305</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0873090703375448</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.0273373922478751</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.00210078967990837</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.00835701074337885</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.0270517736291826</v>
-      </c>
+        <v>0.0636956020701071</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2274,20 +3038,22 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>32.3469717416468</v>
+        <v>0.36192575012714</v>
       </c>
       <c r="C2" t="n">
-        <v>4.41004475264348</v>
-      </c>
-      <c r="D2"/>
+        <v>0.826766261404581</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.417497380229465</v>
+      </c>
       <c r="E2" t="n">
-        <v>54.3547204434882</v>
+        <v>0.417497380229465</v>
       </c>
       <c r="F2" t="n">
-        <v>74.1694071307759</v>
+        <v>0.427297830374753</v>
       </c>
       <c r="G2" t="n">
-        <v>37.6921199897227</v>
+        <v>0.442791707985078</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2297,16 +3063,16 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>67.4305059872995</v>
+        <v>0.319721115537849</v>
       </c>
       <c r="C3" t="n">
-        <v>185.54666121742</v>
+        <v>0.468829969475013</v>
       </c>
       <c r="D3" t="n">
-        <v>42.1526069280112</v>
+        <v>0.642957331612758</v>
       </c>
       <c r="E3" t="n">
-        <v>16.9211599531106</v>
+        <v>0.678194684190868</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
@@ -2318,19 +3084,19 @@
         <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>805.235265455924</v>
+        <v>0.337468114568909</v>
       </c>
       <c r="C4" t="n">
-        <v>459.863975752933</v>
+        <v>0.375852791049332</v>
       </c>
       <c r="D4" t="n">
-        <v>222.848517814855</v>
+        <v>0.346084421922424</v>
       </c>
       <c r="E4" t="n">
-        <v>287.459843488814</v>
+        <v>0.347203752508523</v>
       </c>
       <c r="F4" t="n">
-        <v>26.5248364325069</v>
+        <v>0.318471337579618</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -2341,28 +3107,28 @@
         <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>420.104469241307</v>
+        <v>0.3279628951544</v>
       </c>
       <c r="C5" t="n">
-        <v>20.3469987921657</v>
+        <v>0.748362803990221</v>
       </c>
       <c r="D5" t="n">
-        <v>15.0984679365187</v>
+        <v>0.522402920677066</v>
       </c>
       <c r="E5" t="n">
-        <v>8.63487647677154</v>
+        <v>0.627881414484015</v>
       </c>
       <c r="F5" t="n">
-        <v>18.0628232469681</v>
+        <v>0.503206960055884</v>
       </c>
       <c r="G5" t="n">
-        <v>26.593003687923</v>
+        <v>0.448160535117057</v>
       </c>
       <c r="H5" t="n">
-        <v>80.9014652589624</v>
+        <v>0.39541097879756</v>
       </c>
       <c r="I5" t="n">
-        <v>89.7002921937335</v>
+        <v>0.380396106075864</v>
       </c>
     </row>
     <row r="6">
@@ -2370,13 +3136,13 @@
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>249.719688580108</v>
+        <v>0.319359397079604</v>
       </c>
       <c r="C6" t="n">
-        <v>15.8743191212946</v>
+        <v>0.590676408820441</v>
       </c>
       <c r="D6" t="n">
-        <v>54.673294294663</v>
+        <v>0.48217550274223</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2389,19 +3155,19 @@
         <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>398.548008118901</v>
+        <v>0.373444276824439</v>
       </c>
       <c r="C7" t="n">
-        <v>61.1231056750009</v>
+        <v>0.644495175562621</v>
       </c>
       <c r="D7" t="n">
-        <v>38.7992980851602</v>
+        <v>0.692764892523573</v>
       </c>
       <c r="E7" t="n">
-        <v>105.50378194846</v>
+        <v>0.374939277039577</v>
       </c>
       <c r="F7" t="n">
-        <v>113.190582337237</v>
+        <v>0.429537249753856</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -2412,22 +3178,22 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>144.106855966356</v>
+        <v>0.394119351100811</v>
       </c>
       <c r="C8" t="n">
-        <v>9.51031507468731</v>
+        <v>0.673174932754471</v>
       </c>
       <c r="D8" t="n">
-        <v>24.4790452121271</v>
+        <v>0.556492897829692</v>
       </c>
       <c r="E8" t="n">
-        <v>16.0869570348382</v>
+        <v>0.575357628234767</v>
       </c>
       <c r="F8" t="n">
-        <v>15.1118643990723</v>
+        <v>0.593287546974213</v>
       </c>
       <c r="G8" t="n">
-        <v>18.8683386071158</v>
+        <v>0.567319515750776</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
@@ -2437,19 +3203,19 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>55.1913449980407</v>
+        <v>0.402005650841657</v>
       </c>
       <c r="C9" t="n">
-        <v>126.297689923858</v>
+        <v>0.576772637388905</v>
       </c>
       <c r="D9" t="n">
-        <v>56.1477579203564</v>
+        <v>0.491587892024707</v>
       </c>
       <c r="E9" t="n">
-        <v>22.4914306388709</v>
+        <v>0.56622356911633</v>
       </c>
       <c r="F9" t="n">
-        <v>20.5785857559774</v>
+        <v>0.535580739803256</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -2460,13 +3226,13 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>295.766835349304</v>
+        <v>0.309030080173609</v>
       </c>
       <c r="C10" t="n">
-        <v>41.1117351595271</v>
+        <v>0.586572744087206</v>
       </c>
       <c r="D10" t="n">
-        <v>85.9482791584076</v>
+        <v>0.407128040731661</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -2493,28 +3259,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -2522,95 +3282,91 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>7.24611560912847</v>
+        <v>0.25</v>
       </c>
       <c r="C2" t="n">
-        <v>3.77993389254342</v>
-      </c>
-      <c r="D2"/>
+        <v>0.178571428571429</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.571428571428571</v>
+      </c>
       <c r="E2" t="n">
-        <v>7.67685139584111</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="F2" t="n">
-        <v>8.21094525803148</v>
+        <v>0.464285714285714</v>
       </c>
       <c r="G2" t="n">
-        <v>7.12090522075055</v>
-      </c>
-      <c r="H2"/>
-      <c r="I2"/>
+        <v>0.321428571428571</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>7.06164140602294</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>9.33006011208473</v>
+        <v>0.0645161290322581</v>
       </c>
       <c r="D3" t="n">
-        <v>6.8741132842174</v>
+        <v>0.935483870967742</v>
       </c>
       <c r="E3" t="n">
-        <v>5.81689086390112</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
+        <v>0.032258064516129</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0645161290322581</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.903225806451613</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>10.3016800239816</v>
+        <v>0.0487804878048781</v>
       </c>
       <c r="C4" t="n">
-        <v>9.59463708396478</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="D4" t="n">
-        <v>9.4140542732305</v>
+        <v>0.853658536585366</v>
       </c>
       <c r="E4" t="n">
-        <v>9.109510157184</v>
+        <v>0.170731707317073</v>
       </c>
       <c r="F4" t="n">
-        <v>5.06819624892405</v>
-      </c>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
+        <v>0.207317073170732</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.621951219512195</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>9.66670208631754</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="C5" t="n">
-        <v>5.94599268836586</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>5.56183485390437</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>5.50582540881411</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>5.97277290325009</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="G5" t="n">
-        <v>6.49790802115941</v>
-      </c>
-      <c r="H5" t="n">
-        <v>7.48857793083944</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7.32940572919602</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -2618,109 +3374,115 @@
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>8.50581160181961</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>5.86821138975832</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="D6" t="n">
-        <v>6.6837806681273</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
+        <v>0.842105263157895</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>9.41097967140025</v>
+        <v>0.03125</v>
       </c>
       <c r="C7" t="n">
-        <v>7.61551357557949</v>
+        <v>0.0625</v>
       </c>
       <c r="D7" t="n">
-        <v>6.7032542779701</v>
+        <v>0.90625</v>
       </c>
       <c r="E7" t="n">
-        <v>8.46220728140047</v>
+        <v>0.03125</v>
       </c>
       <c r="F7" t="n">
-        <v>8.20798642650985</v>
-      </c>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
+        <v>0.1875</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.78125</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>7.75922824551596</v>
+        <v>0.16</v>
       </c>
       <c r="C8" t="n">
-        <v>5.53402406409441</v>
+        <v>0.32</v>
       </c>
       <c r="D8" t="n">
-        <v>6.76305719636758</v>
+        <v>0.52</v>
       </c>
       <c r="E8" t="n">
-        <v>6.33340422426626</v>
+        <v>0.12</v>
       </c>
       <c r="F8" t="n">
-        <v>6.49617044175934</v>
+        <v>0.48</v>
       </c>
       <c r="G8" t="n">
-        <v>6.84825679826594</v>
-      </c>
-      <c r="H8"/>
-      <c r="I8"/>
+        <v>0.4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>7.5602571979869</v>
+        <v>0.294117647058824</v>
       </c>
       <c r="C9" t="n">
-        <v>8.11185059653776</v>
+        <v>0.0882352941176471</v>
       </c>
       <c r="D9" t="n">
-        <v>7.56504876139446</v>
+        <v>0.617647058823529</v>
       </c>
       <c r="E9" t="n">
-        <v>6.53508411603809</v>
+        <v>0.441176470588235</v>
       </c>
       <c r="F9" t="n">
-        <v>6.06826809378661</v>
-      </c>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
+        <v>0.323529411764706</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.235294117647059</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>8.81013019494739</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="C10" t="n">
-        <v>7.68216694058888</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="D10" t="n">
-        <v>8.05862543166015</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.222222222222222</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.388888888888889</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2741,28 +3503,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -2770,95 +3517,55 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>415</v>
+        <v>0.0340902924563236</v>
       </c>
       <c r="C2" t="n">
-        <v>450</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2" t="n">
-        <v>508</v>
-      </c>
-      <c r="F2" t="n">
-        <v>845</v>
-      </c>
-      <c r="G2" t="n">
-        <v>400</v>
-      </c>
-      <c r="H2"/>
-      <c r="I2"/>
+        <v>0.518164402009701</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.155504263242785</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>223</v>
+        <v>0.0576297288606833</v>
       </c>
       <c r="C3" t="n">
-        <v>1738</v>
+        <v>0.0292822798976171</v>
       </c>
       <c r="D3" t="n">
-        <v>572</v>
-      </c>
-      <c r="E3" t="n">
-        <v>439</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
+        <v>0.0158952077878439</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>1814</v>
+        <v>0.0278812593891142</v>
       </c>
       <c r="C4" t="n">
-        <v>1211</v>
+        <v>0.0358195966614276</v>
       </c>
       <c r="D4" t="n">
-        <v>1288</v>
-      </c>
-      <c r="E4" t="n">
-        <v>873</v>
-      </c>
-      <c r="F4" t="n">
-        <v>45</v>
-      </c>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
+        <v>0.162585654297108</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>1218</v>
+        <v>0.00879722924777416</v>
       </c>
       <c r="C5" t="n">
-        <v>657</v>
+        <v>0.0903842869219245</v>
       </c>
       <c r="D5" t="n">
-        <v>171</v>
-      </c>
-      <c r="E5" t="n">
-        <v>265</v>
-      </c>
-      <c r="F5" t="n">
-        <v>223</v>
-      </c>
-      <c r="G5" t="n">
-        <v>238</v>
-      </c>
-      <c r="H5" t="n">
-        <v>334</v>
-      </c>
-      <c r="I5" t="n">
-        <v>271</v>
+        <v>0.0376148071615334</v>
       </c>
     </row>
     <row r="6">
@@ -2866,109 +3573,70 @@
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>518</v>
+        <v>0.000204300101223851</v>
       </c>
       <c r="C6" t="n">
-        <v>330</v>
+        <v>0.0141465380724781</v>
       </c>
       <c r="D6" t="n">
-        <v>222</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
+        <v>0.000100232572888456</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>1025</v>
+        <v>0.00238950580502222</v>
       </c>
       <c r="C7" t="n">
-        <v>1120</v>
+        <v>0.00788664152134062</v>
       </c>
       <c r="D7" t="n">
-        <v>704</v>
-      </c>
-      <c r="E7" t="n">
-        <v>734</v>
-      </c>
-      <c r="F7" t="n">
-        <v>655</v>
-      </c>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
+        <v>0.0361689912581257</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>330</v>
+        <v>0.00429694175227504</v>
       </c>
       <c r="C8" t="n">
-        <v>815</v>
+        <v>0.0685207868084389</v>
       </c>
       <c r="D8" t="n">
-        <v>475</v>
-      </c>
-      <c r="E8" t="n">
-        <v>419</v>
-      </c>
-      <c r="F8" t="n">
-        <v>509</v>
-      </c>
-      <c r="G8" t="n">
-        <v>587</v>
-      </c>
-      <c r="H8"/>
-      <c r="I8"/>
+        <v>0.13675553483212</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>478</v>
+        <v>0.28215971510474</v>
       </c>
       <c r="C9" t="n">
-        <v>817</v>
+        <v>0.74726299304249</v>
       </c>
       <c r="D9" t="n">
-        <v>526</v>
-      </c>
-      <c r="E9" t="n">
-        <v>428</v>
-      </c>
-      <c r="F9" t="n">
-        <v>230</v>
-      </c>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
+        <v>0.445987307552862</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>657</v>
+        <v>0.00288639729212833</v>
       </c>
       <c r="C10" t="n">
-        <v>1367</v>
+        <v>0.115546321143977</v>
       </c>
       <c r="D10" t="n">
-        <v>621</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
+        <v>0.124128346398853</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
